--- a/biology/Botanique/Crinum_asiaticum/Crinum_asiaticum.xlsx
+++ b/biology/Botanique/Crinum_asiaticum/Crinum_asiaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crinum asiaticum est une espèce de plantes de la famille des Amaryllidaceae. C'est un bulbe pérenne produisant une ombelle de grandes fleurs voyantes.
 On la trouve en Chine, à Hong Kong, en Inde, aux îles Ryukyu et au Japon.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crinum asiaticum mesure jusqu'à 2 m de haut[2]. Il présente un gros bulbe de 10 à 12 cm de diamètre, muni d'un goulot de 15–20 cm de long. Il peut peser jusqu'à 10 kg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crinum asiaticum mesure jusqu'à 2 m de haut. Il présente un gros bulbe de 10 à 12 cm de diamètre, muni d'un goulot de 15–20 cm de long. Il peut peser jusqu'à 10 kg.
 Les feuilles en rosette sont nombreuses et mesurent de 30 150 cm sur 4 à 20 cm.
 Les fleurs sont pédiculées, blanc, 7 à 10 cm de long avec des segments oblongs linéaire de 5–7 cm. Les étamines sont rouges, avec des anthères jaunes. Les fleurs sont disposées en ombelles, au bout d'une longue hampe. Il fleurit en été.
 Les fleurs donnent de gros fruits ressemblant à de grosses gousses d'ail.
@@ -547,7 +561,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand crinum est peu rustique et ne supporte pas les températures inférieures à -5 °C. Dans les climats froids, la culture en pot, à l'intérieur ou en serre en hiver et à l'extérieur dans les mois les plus chauds, est conseillée. À cet effet, un mélange de tourbe et de sable peut être utilisé comme substrat en fertilisant régulièrement.
 Les bulbes sont plantés au printemps à 25–30 cm de profondeur dans un sol bien drainé, humide et fertile, dans un emplacement ensoleillé et, si possible, à l'abri du vent.
@@ -580,7 +596,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bulbes de Crinum asiaticum contiennent un inhibiteur de l'acétylcholinestérase appelé ungeremina qui peut convenir comme traitement pour la maladie d'Alzheimer. L'ungeremina a également été isolé à partir de Nerine bowdenii, Ungernia spiralis, Zephyranthes flava, Ungernia minor, Crinum augustum, Pancratium maritimum et Hippeastrum solandriflorum.
 </t>
@@ -611,7 +629,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les parties de la plante sont toxiques en cas d'ingestion. Une exposition à la sève peut causer une irritation de la peau.
 </t>
